--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.022620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.022620.xlsx_with_dialog_acts.xlsx
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4881,12 +4881,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5049,12 +5049,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6153,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6325,12 +6325,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6367,12 +6367,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6623,12 +6623,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7677,12 +7677,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7803,12 +7803,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8185,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8441,12 +8441,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9029,12 +9029,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9701,12 +9701,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10419,12 +10419,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10755,12 +10755,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10927,12 +10927,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11011,12 +11011,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11095,12 +11095,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11347,12 +11347,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11389,12 +11389,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11557,12 +11557,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11599,12 +11599,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11767,12 +11767,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12271,12 +12271,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12485,12 +12485,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12695,12 +12695,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13283,12 +13283,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14165,12 +14165,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15257,12 +15257,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15509,12 +15509,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15677,12 +15677,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15761,12 +15761,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15933,12 +15933,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16017,12 +16017,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16227,12 +16227,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16689,12 +16689,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16731,12 +16731,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16773,12 +16773,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16899,12 +16899,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16941,12 +16941,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17613,12 +17613,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17865,12 +17865,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18537,12 +18537,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18999,12 +18999,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19629,12 +19629,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19713,12 +19713,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19965,12 +19965,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20217,12 +20217,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20301,12 +20301,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20511,12 +20511,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20641,12 +20641,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21229,12 +21229,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21355,12 +21355,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21439,12 +21439,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21817,12 +21817,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22195,12 +22195,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22363,12 +22363,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22741,12 +22741,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
